--- a/Week2/docs/SE1601_SWP391_OnlineShop_ProductBacklog_W2.xlsx
+++ b/Week2/docs/SE1601_SWP391_OnlineShop_ProductBacklog_W2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -52,7 +52,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Estimate</t>
+    <t>Note</t>
   </si>
   <si>
     <t>Home Page</t>
@@ -85,9 +85,6 @@
     <t>Bùi Thái Dương</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>Product Details</t>
   </si>
   <si>
@@ -98,6 +95,12 @@
   </si>
   <si>
     <t>List of all the products that have been added into the cart</t>
+  </si>
+  <si>
+    <t>Bùi Quốc Vũ</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
   <si>
     <t>User Login</t>
@@ -117,18 +120,36 @@
   <si>
     <t>Phạm Anh Đức</t>
   </si>
+  <si>
+    <t>User Profile</t>
+  </si>
+  <si>
+    <t>Customer can register view their infomation</t>
+  </si>
+  <si>
+    <t>Đỗ Đức Hữu</t>
+  </si>
+  <si>
+    <t>User List</t>
+  </si>
+  <si>
+    <t>Admin manage accounts</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,7 +167,7 @@
       <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Sitka Display"/>
       <charset val="134"/>
     </font>
     <font>
@@ -154,22 +175,20 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Sitka Display"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Sitka Display"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sitka Display"/>
       <charset val="134"/>
     </font>
     <font>
@@ -188,18 +207,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Sitka Display"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Sitka Display"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Sitka Display"/>
       <charset val="134"/>
     </font>
@@ -235,14 +248,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Sitka Display"/>
       <charset val="163"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,7 +268,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,6 +289,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -276,35 +305,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,8 +327,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,8 +358,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -355,35 +388,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +471,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFD965"/>
+        <bgColor rgb="FFFFD965"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E2F3"/>
+        <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -470,19 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,37 +519,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,19 +555,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,19 +591,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,20 +637,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -631,28 +662,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,32 +707,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,26 +727,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,6 +755,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -784,18 +793,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,135 +825,135 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -947,11 +967,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -971,13 +991,13 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,45 +1006,44 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1127,7 +1146,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6960870" y="635"/>
-          <a:ext cx="5657215" cy="791845"/>
+          <a:ext cx="5116830" cy="791845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1423,7 +1442,7 @@
   <dimension ref="A1:I983"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1432,9 +1451,9 @@
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="55.7083333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.2833333333333" customWidth="1"/>
-    <col min="5" max="6" width="21.2833333333333" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="16.6" customWidth="1"/>
+    <col min="6" max="7" width="18.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.7" customWidth="1"/>
     <col min="9" max="9" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1482,7 +1501,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="19.2" spans="1:9">
+    <row r="5" ht="24.6" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1514,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" ht="19.8" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1508,7 +1527,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" ht="31.2" spans="1:9">
+    <row r="7" ht="39" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1521,21 +1540,21 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" ht="18" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" ht="19.8" spans="1:9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1612,8 +1631,8 @@
       <c r="G11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>23</v>
+      <c r="H11" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I11" s="33"/>
     </row>
@@ -1622,10 +1641,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>15</v>
@@ -1639,8 +1658,8 @@
       <c r="G12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>23</v>
+      <c r="H12" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I12" s="33"/>
     </row>
@@ -1649,10 +1668,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>27</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>15</v>
@@ -1663,9 +1682,11 @@
       <c r="F13" s="18">
         <v>120</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="H13" s="21" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I13" s="33"/>
     </row>
@@ -1674,16 +1695,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="18">
         <v>60</v>
@@ -1692,7 +1713,7 @@
         <v>17</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I14" s="33"/>
     </row>
@@ -1701,71 +1722,103 @@
         <v>6</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="18">
         <v>60</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I15" s="33"/>
     </row>
-    <row r="16" ht="20.55" spans="1:9">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="34"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="26"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+    <row r="16" ht="19.8" spans="1:9">
+      <c r="A16" s="13">
+        <v>7</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="18">
+        <v>120</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" ht="20.55" spans="1:9">
+      <c r="A17" s="13">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="18">
+        <v>120</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" ht="16.35" spans="1:9">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="26"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" ht="16.35" spans="3:8">
-      <c r="C19" s="23"/>
+      <c r="C19" s="26"/>
       <c r="H19" s="29"/>
     </row>
     <row r="20" ht="16.35" spans="3:8">
-      <c r="C20" s="23"/>
+      <c r="C20" s="26"/>
       <c r="H20" s="29"/>
     </row>
     <row r="21" ht="16.35" spans="3:8">
-      <c r="C21" s="23"/>
+      <c r="C21" s="26"/>
       <c r="H21" s="29"/>
     </row>
     <row r="22" ht="16.35" spans="3:8">
